--- a/biology/Botanique/Terminalia/Terminalia.xlsx
+++ b/biology/Botanique/Terminalia/Terminalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Terminalia est un genre de plantes de la famille des Combretaceae. Il est principalement composé de grands arbres, environ 100 espèces réparties dans les régions tropicales du monde.
 Le genre doit son nom au latin terminus, en référence au fait que les feuilles apparaissent au bout de ses pousses.
@@ -513,7 +525,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les arbres de ce genre sont surtout connus comme source de métabolites secondaires telles que les triterpènes cycliques et leurs dérivés, les flavonoïdes, les tanins et d'autres composés aromatiques.
 </t>
@@ -544,7 +558,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Terminalia arjuna  (Roxb.) Wight et Arn.
@@ -569,9 +585,43 @@
 Terminalia subspathula King.
 Terminalia superba Engler &amp; Diels - Fraké
 Terminalia tetraphylla (Aubl.) Gere &amp; Boatwr.
-Selon GBIF       (09 février 2022)[2]
-Selon Catalogue of Life                                  (20 juillet 2017)[3]
-Selon NCBI  (27 juil. 2010)[4]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terminalia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terminalia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (27 juil. 2010)[4]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Terminalia amazonia
 Terminalia arjuna
 Terminalia bellirica
@@ -599,7 +649,43 @@
 Terminalia stuhlmannii
 Terminalia tomentosa
 Terminalia trichopoda
-Selon ITIS      (20 juillet 2017)[5]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terminalia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terminalia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (20 juillet 2017)[5]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Terminalia bellirica (Gaertn.) Roxb.
 Terminalia buceras (L.) C. Wright
 Terminalia carolinensis Kaneh.
